--- a/xnt/XNT_420013837.xlsx
+++ b/xnt/XNT_420013837.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\02_Code\02_VBA\18_Hana\Hana Code\hanaVBA\xnt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1138ADF9-9BD8-4E9E-A431-F310D515866E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C06B4795-4583-49A8-BF2A-F38CDF3845AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A99A9459-B05E-44B7-8369-209259EFA703}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0A9871A5-B92D-40AB-96E0-A2AE413620B7}"/>
   </bookViews>
   <sheets>
     <sheet name="xnt" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="90">
+  <si>
+    <t>Mã SP</t>
+  </si>
   <si>
     <t>Mã NL</t>
   </si>
@@ -56,64 +59,76 @@
     <t>120104502KD</t>
   </si>
   <si>
-    <t>123</t>
+    <t>123(55597)</t>
   </si>
   <si>
     <t>120401326KD</t>
   </si>
   <si>
+    <t>123(56987)</t>
+  </si>
+  <si>
     <t>121609402KD</t>
   </si>
   <si>
-    <t>105662984120-_x000D_
-123</t>
+    <t>105662984120(1000)_x000D_
+123(37750)</t>
   </si>
   <si>
     <t>129901359KD</t>
   </si>
   <si>
-    <t>105638751260</t>
+    <t>105638751260(500000)</t>
   </si>
   <si>
     <t>150100031KD</t>
   </si>
   <si>
-    <t>104708945460</t>
+    <t>104708945460(5000)</t>
   </si>
   <si>
     <t>150100034KD</t>
   </si>
   <si>
-    <t>104771722750-_x000D_
-104823913720</t>
+    <t>104771722750(500)_x000D_
+104823913720(5000)</t>
   </si>
   <si>
     <t>150100042KD</t>
   </si>
   <si>
-    <t>104413848010</t>
+    <t>104413848010(10000)</t>
   </si>
   <si>
     <t>150100046KD</t>
   </si>
   <si>
-    <t>105042761500-_x000D_
-123</t>
+    <t>105042761500(5000)_x000D_
+123(395000)</t>
   </si>
   <si>
     <t>150100065KD</t>
   </si>
   <si>
+    <t>123(20000)</t>
+  </si>
+  <si>
     <t>150100206KD</t>
   </si>
   <si>
+    <t>123(110000)</t>
+  </si>
+  <si>
     <t>150101465KD</t>
   </si>
   <si>
+    <t>123(19783)</t>
+  </si>
+  <si>
     <t>150101653KD</t>
   </si>
   <si>
-    <t>104413847530</t>
+    <t>104413847530(50000)</t>
   </si>
   <si>
     <t>150101665KD</t>
@@ -125,27 +140,30 @@
     <t>150102481KD</t>
   </si>
   <si>
+    <t>123(40000)</t>
+  </si>
+  <si>
     <t>150102658KD</t>
   </si>
   <si>
-    <t>104395501560</t>
+    <t>104395501560(60000)</t>
   </si>
   <si>
     <t>150102800KD</t>
   </si>
   <si>
-    <t>104751819430</t>
+    <t>104751819430(5000)</t>
   </si>
   <si>
     <t>150200039KD</t>
   </si>
   <si>
-    <t>104898271330-_x000D_
-105093951100-_x000D_
-105238867200-_x000D_
-105255201920-_x000D_
-105614937630-_x000D_
-123</t>
+    <t>104898271330(4000)_x000D_
+105093951100(4000)_x000D_
+105238867200(4000)_x000D_
+105255201920(4000)_x000D_
+105614937630(4000)_x000D_
+123(376000)</t>
   </si>
   <si>
     <t>150201479KD</t>
@@ -154,103 +172,152 @@
     <t>150201612KD</t>
   </si>
   <si>
-    <t>105024985700-_x000D_
-105491871000</t>
+    <t>105024985700(2000)_x000D_
+105491871000(2000)</t>
   </si>
   <si>
     <t>150300526KD</t>
   </si>
   <si>
+    <t>123(74990)</t>
+  </si>
+  <si>
     <t>150300740KD</t>
   </si>
   <si>
+    <t>123(18985)</t>
+  </si>
+  <si>
     <t>150400117KD</t>
   </si>
   <si>
-    <t>104442186810</t>
+    <t>104442186810(3000)</t>
   </si>
   <si>
     <t>150700525KD</t>
   </si>
   <si>
+    <t>123(37600)</t>
+  </si>
+  <si>
     <t>151000006KD</t>
   </si>
   <si>
+    <t>123(19200)</t>
+  </si>
+  <si>
     <t>151000825KD</t>
   </si>
   <si>
+    <t>123(17496)</t>
+  </si>
+  <si>
     <t>151000989KD</t>
   </si>
   <si>
+    <t>123(6133)</t>
+  </si>
+  <si>
     <t>151001033KD</t>
   </si>
   <si>
+    <t>123(17993)</t>
+  </si>
+  <si>
     <t>151200038KD</t>
   </si>
   <si>
+    <t>123(17731)</t>
+  </si>
+  <si>
     <t>151300032KD</t>
   </si>
   <si>
+    <t>123(16000)</t>
+  </si>
+  <si>
     <t>151300945KD</t>
   </si>
   <si>
+    <t>123(20208)</t>
+  </si>
+  <si>
     <t>151400056KD</t>
   </si>
   <si>
+    <t>123(19657)</t>
+  </si>
+  <si>
     <t>151602208KD</t>
   </si>
   <si>
+    <t>123(12860)</t>
+  </si>
+  <si>
     <t>151602489KD</t>
   </si>
   <si>
+    <t>105662984120(1500)_x000D_
+123(37982)</t>
+  </si>
+  <si>
     <t>15191047DKD</t>
   </si>
   <si>
+    <t>123(18765)</t>
+  </si>
+  <si>
     <t>159900010KD</t>
   </si>
   <si>
-    <t>198</t>
+    <t>198(300000)</t>
   </si>
   <si>
     <t>159900011KD</t>
   </si>
   <si>
+    <t>198(42000)</t>
+  </si>
+  <si>
     <t>162302652KD</t>
   </si>
   <si>
-    <t>194</t>
+    <t>194(12)</t>
   </si>
   <si>
     <t>162302746KD</t>
   </si>
   <si>
-    <t>110</t>
+    <t>110(165.6)</t>
   </si>
   <si>
     <t>16231001AKD</t>
   </si>
   <si>
-    <t>207</t>
+    <t>207(3000)</t>
   </si>
   <si>
     <t>16231017AKD</t>
   </si>
   <si>
-    <t>110-_x000D_
-873-_x000D_
-565</t>
-  </si>
-  <si>
-    <t>105140441710</t>
-  </si>
-  <si>
-    <t>104846758440</t>
-  </si>
-  <si>
-    <t>105197767510</t>
-  </si>
-  <si>
-    <t>105661495330</t>
+    <t>110(199)_x000D_
+873(801)_x000D_
+565(11600)</t>
+  </si>
+  <si>
+    <t>105140441710(300000)</t>
+  </si>
+  <si>
+    <t>104846758440(80000)</t>
+  </si>
+  <si>
+    <t>104846758440(20000)</t>
+  </si>
+  <si>
+    <t>105197767510(24000)</t>
+  </si>
+  <si>
+    <t>105661495330(3000)</t>
   </si>
 </sst>
 </file>
@@ -331,7 +398,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 2" xfId="1" xr:uid="{92D1F0FA-E54E-4313-B2ED-5FFDD212FD12}"/>
+    <cellStyle name="표준 2" xfId="1" xr:uid="{6CB2D67A-0ACA-4B12-8EA9-99DCF0C8DF46}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -662,7 +729,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{926CE43E-6B6F-484D-9186-6BF5C3C6E3CB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B387C60-5CB9-4284-A539-ED5EA9E20EA5}">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:F47"/>
   <sheetViews>
@@ -681,32 +748,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
-        <v>420013837</v>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
+      <c r="A2" s="2">
+        <v>420013837</v>
+      </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" s="2">
         <v>4752</v>
@@ -719,12 +788,14 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
+      <c r="A3" s="2">
+        <v>420013837</v>
+      </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2">
         <v>4752</v>
@@ -737,12 +808,14 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
+      <c r="A4" s="2">
+        <v>420013837</v>
+      </c>
       <c r="B4" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D4" s="2">
         <v>3168</v>
@@ -755,12 +828,14 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
+      <c r="A5" s="2">
+        <v>420013837</v>
+      </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D5" s="2">
         <v>792</v>
@@ -773,12 +848,14 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
+      <c r="A6" s="2">
+        <v>420013837</v>
+      </c>
       <c r="B6" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D6" s="2">
         <v>1584</v>
@@ -791,12 +868,14 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
+      <c r="A7" s="2">
+        <v>420013837</v>
+      </c>
       <c r="B7" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D7" s="2">
         <v>1584</v>
@@ -809,12 +888,14 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
+      <c r="A8" s="2">
+        <v>420013837</v>
+      </c>
       <c r="B8" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D8" s="2">
         <v>9504</v>
@@ -827,12 +908,14 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
+      <c r="A9" s="2">
+        <v>420013837</v>
+      </c>
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D9" s="2">
         <v>33264</v>
@@ -845,12 +928,14 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
+      <c r="A10" s="2">
+        <v>420013837</v>
+      </c>
       <c r="B10" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="D10" s="2">
         <v>1584</v>
@@ -863,12 +948,14 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
+      <c r="A11" s="2">
+        <v>420013837</v>
+      </c>
       <c r="B11" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D11" s="2">
         <v>9504</v>
@@ -881,12 +968,14 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
+      <c r="A12" s="2">
+        <v>420013837</v>
+      </c>
       <c r="B12" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="D12" s="2">
         <v>1584</v>
@@ -899,12 +988,14 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
+      <c r="A13" s="2">
+        <v>420013837</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D13" s="2">
         <v>1584</v>
@@ -917,12 +1008,14 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
+      <c r="A14" s="2">
+        <v>420013837</v>
+      </c>
       <c r="B14" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="D14" s="2">
         <v>1584</v>
@@ -935,12 +1028,14 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
+      <c r="A15" s="2">
+        <v>420013837</v>
+      </c>
       <c r="B15" s="2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="D15" s="2">
         <v>1584</v>
@@ -953,12 +1048,14 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
+      <c r="A16" s="2">
+        <v>420013837</v>
+      </c>
       <c r="B16" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="D16" s="2">
         <v>3168</v>
@@ -971,12 +1068,14 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
+      <c r="A17" s="2">
+        <v>420013837</v>
+      </c>
       <c r="B17" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D17" s="2">
         <v>1584</v>
@@ -989,12 +1088,14 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
+      <c r="A18" s="2">
+        <v>420013837</v>
+      </c>
       <c r="B18" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D18" s="2">
         <v>1584</v>
@@ -1007,12 +1108,14 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
+      <c r="A19" s="2">
+        <v>420013837</v>
+      </c>
       <c r="B19" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D19" s="2">
         <v>31680</v>
@@ -1025,12 +1128,14 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
+      <c r="A20" s="2">
+        <v>420013837</v>
+      </c>
       <c r="B20" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="D20" s="2">
         <v>3168</v>
@@ -1043,12 +1148,14 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
+      <c r="A21" s="2">
+        <v>420013837</v>
+      </c>
       <c r="B21" s="2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D21" s="2">
         <v>3168</v>
@@ -1061,12 +1168,14 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
+      <c r="A22" s="2">
+        <v>420013837</v>
+      </c>
       <c r="B22" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="D22" s="2">
         <v>6336</v>
@@ -1083,10 +1192,10 @@
         <v>420013837</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="D23" s="2">
         <v>1584</v>
@@ -1103,10 +1212,10 @@
         <v>420013837</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D24" s="2">
         <v>1584</v>
@@ -1123,10 +1232,10 @@
         <v>420013837</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="D25" s="2">
         <v>3168</v>
@@ -1143,10 +1252,10 @@
         <v>420013837</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="D26" s="2">
         <v>1586.919999999993</v>
@@ -1163,10 +1272,10 @@
         <v>420013837</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="D27" s="2">
         <v>1588.672000000008</v>
@@ -1183,10 +1292,10 @@
         <v>420013837</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="D28" s="2">
         <v>1584.999999999995</v>
@@ -1203,10 +1312,10 @@
         <v>420013837</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="D29" s="2">
         <v>1584</v>
@@ -1223,10 +1332,10 @@
         <v>420013837</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="D30" s="2">
         <v>1584</v>
@@ -1243,10 +1352,10 @@
         <v>420013837</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>6</v>
+        <v>62</v>
       </c>
       <c r="D31" s="2">
         <v>1584</v>
@@ -1263,10 +1372,10 @@
         <v>420013837</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="D32" s="2">
         <v>1584</v>
@@ -1283,10 +1392,10 @@
         <v>420013837</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>6</v>
+        <v>66</v>
       </c>
       <c r="D33" s="2">
         <v>1584</v>
@@ -1303,10 +1412,10 @@
         <v>420013837</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>6</v>
+        <v>68</v>
       </c>
       <c r="D34" s="2">
         <v>1584</v>
@@ -1323,10 +1432,10 @@
         <v>420013837</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="D35" s="2">
         <v>3168</v>
@@ -1343,10 +1452,10 @@
         <v>420013837</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="D36" s="2">
         <v>1584</v>
@@ -1363,10 +1472,10 @@
         <v>420013837</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="D37" s="2">
         <v>13178.880000000001</v>
@@ -1383,10 +1492,10 @@
         <v>420013837</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="D38" s="2">
         <v>11807.999999999993</v>
@@ -1403,10 +1512,10 @@
         <v>420013837</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="D39" s="2">
         <v>11.088000000000001</v>
@@ -1423,10 +1532,10 @@
         <v>420013837</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="D40" s="2">
         <v>11.088000000000001</v>
@@ -1443,10 +1552,10 @@
         <v>420013837</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="D41" s="2">
         <v>11.088000000000001</v>
@@ -1463,10 +1572,10 @@
         <v>420013837</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="D42" s="2">
         <v>1584</v>
@@ -1486,7 +1595,7 @@
         <v>150100045</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="D43" s="2">
         <v>23760</v>
@@ -1506,7 +1615,7 @@
         <v>150200036</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="D44" s="2">
         <v>1584</v>
@@ -1526,7 +1635,7 @@
         <v>150200041</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="D45" s="2">
         <v>9504</v>
@@ -1546,7 +1655,7 @@
         <v>150200042</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="D46" s="2">
         <v>11088</v>
@@ -1566,7 +1675,7 @@
         <v>151000886</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="D47" s="2">
         <v>1584</v>
